--- a/FileOutput/DataEngine_Results.xlsx
+++ b/FileOutput/DataEngine_Results.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Projects\AutomationProject\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FBB118-ACC8-41D0-9C58-411F979A6ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE382D8B-3337-4F05-A018-4E088DC7394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1095" windowWidth="21045" windowHeight="10215" xr2:uid="{03E423A5-42F9-4FBF-8471-492F80536B34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{03E423A5-42F9-4FBF-8471-492F80536B34}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEngine" sheetId="1" r:id="rId1"/>
     <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
     <sheet name="SearchFlight" sheetId="3" r:id="rId3"/>
     <sheet name="BookFlight" sheetId="4" r:id="rId4"/>
+    <sheet name="DeleteBookings" sheetId="5" r:id="rId5"/>
+    <sheet name="UpdateMyProfile" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="129">
   <si>
     <t>TestCase Description</t>
   </si>
@@ -352,6 +354,66 @@
   </si>
   <si>
     <t>Soft Airlines</t>
+  </si>
+  <si>
+    <t>TS004</t>
+  </si>
+  <si>
+    <t>DeleteBookings</t>
+  </si>
+  <si>
+    <t>Click Flight Booking</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Delete Item from Table</t>
+  </si>
+  <si>
+    <t>DeleteItemFromTable</t>
+  </si>
+  <si>
+    <t>Flight Bookings</t>
+  </si>
+  <si>
+    <t>TS005</t>
+  </si>
+  <si>
+    <t>UpdateMyProfile</t>
+  </si>
+  <si>
+    <t>Click My Profile</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>Enter Profile Name</t>
+  </si>
+  <si>
+    <t>Upload Profile Pic</t>
+  </si>
+  <si>
+    <t>Click Update</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>ProfilePic</t>
+  </si>
+  <si>
+    <t>//h4[normalize-space()='Congratulations, Your profile has been updated']</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>//input[@id='profile_pic']</t>
+  </si>
+  <si>
+    <t>E:\Automation Projects\AutomationProject\FileInput\3d Printed Spur gears.jpg</t>
   </si>
   <si>
     <t>Pass</t>
@@ -362,7 +424,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="93" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +453,244 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -798,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -808,6 +1108,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -863,6 +1166,40 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED22B53-E7A1-4CC4-ABC2-242141C6F311}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,8 +1552,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="15">
-        <v>108</v>
+      <c r="D2" t="s" s="16">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,8 +1566,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="34">
-        <v>108</v>
+      <c r="D3" t="s" s="35">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,11 +1580,40 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="59">
+      <c r="D4" t="s" s="60">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>108</v>
       </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="74">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="94">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1257,7 +1623,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,8 +1677,8 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="5">
-        <v>108</v>
+      <c r="G2" t="s" s="6">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,8 +1700,8 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="6">
-        <v>108</v>
+      <c r="G3" t="s" s="7">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,8 +1723,8 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" t="s" s="7">
-        <v>108</v>
+      <c r="G4" t="s" s="8">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,8 +1746,8 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="8">
-        <v>108</v>
+      <c r="G5" t="s" s="9">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,8 +1769,8 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="9">
-        <v>108</v>
+      <c r="G6" t="s" s="10">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,8 +1792,8 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="10">
-        <v>108</v>
+      <c r="G7" t="s" s="11">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1449,8 +1815,8 @@
       <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s" s="11">
-        <v>108</v>
+      <c r="G8" t="s" s="12">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1472,8 +1838,8 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s" s="12">
-        <v>108</v>
+      <c r="G9" t="s" s="13">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,8 +1861,8 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s" s="13">
-        <v>108</v>
+      <c r="G10" t="s" s="14">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1518,8 +1884,8 @@
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s" s="14">
-        <v>108</v>
+      <c r="G11" t="s" s="15">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1532,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266D743E-6359-4518-88D4-079992D9ED6C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,8 +1953,8 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="16">
-        <v>108</v>
+      <c r="G2" t="s" s="17">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,8 +1976,8 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="17">
-        <v>108</v>
+      <c r="G3" t="s" s="18">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1633,8 +1999,8 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" t="s" s="18">
-        <v>108</v>
+      <c r="G4" t="s" s="19">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,8 +2022,8 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="19">
-        <v>108</v>
+      <c r="G5" t="s" s="20">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1679,8 +2045,8 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="20">
-        <v>108</v>
+      <c r="G6" t="s" s="21">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,8 +2068,8 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="21">
-        <v>108</v>
+      <c r="G7" t="s" s="22">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,8 +2091,8 @@
       <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s" s="22">
-        <v>108</v>
+      <c r="G8" t="s" s="23">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,8 +2114,8 @@
       <c r="F9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s" s="23">
-        <v>108</v>
+      <c r="G9" t="s" s="24">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1771,8 +2137,8 @@
       <c r="F10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s" s="24">
-        <v>108</v>
+      <c r="G10" t="s" s="25">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,8 +2160,8 @@
       <c r="F11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s" s="25">
-        <v>108</v>
+      <c r="G11" t="s" s="26">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,8 +2183,8 @@
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s" s="26">
-        <v>108</v>
+      <c r="G12" t="s" s="27">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,8 +2206,8 @@
       <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" t="s" s="27">
-        <v>108</v>
+      <c r="G13" t="s" s="28">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,8 +2229,8 @@
       <c r="F14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G14" t="s" s="28">
-        <v>108</v>
+      <c r="G14" t="s" s="29">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,8 +2252,8 @@
       <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="G15" t="s" s="29">
-        <v>108</v>
+      <c r="G15" t="s" s="30">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1909,8 +2275,8 @@
       <c r="F16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G16" t="s" s="30">
-        <v>108</v>
+      <c r="G16" t="s" s="31">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,8 +2298,8 @@
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s" s="31">
-        <v>108</v>
+      <c r="G17" t="s" s="32">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,8 +2321,8 @@
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s" s="32">
-        <v>108</v>
+      <c r="G18" t="s" s="33">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,8 +2344,8 @@
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s" s="33">
-        <v>108</v>
+      <c r="G19" t="s" s="34">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1992,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D0659C-B08F-4200-9DEA-D144E156EEEB}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,8 +2413,8 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="35">
-        <v>108</v>
+      <c r="G2" t="s" s="36">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,8 +2436,8 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="36">
-        <v>108</v>
+      <c r="G3" t="s" s="37">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,8 +2459,8 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" t="s" s="37">
-        <v>108</v>
+      <c r="G4" t="s" s="38">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,8 +2482,8 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="38">
-        <v>108</v>
+      <c r="G5" t="s" s="39">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,8 +2505,8 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="39">
-        <v>108</v>
+      <c r="G6" t="s" s="40">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,8 +2528,8 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="40">
-        <v>108</v>
+      <c r="G7" t="s" s="41">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,8 +2551,8 @@
       <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s" s="41">
-        <v>108</v>
+      <c r="G8" t="s" s="42">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,8 +2574,8 @@
       <c r="F9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s" s="42">
-        <v>108</v>
+      <c r="G9" t="s" s="43">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,8 +2597,8 @@
       <c r="F10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s" s="43">
-        <v>108</v>
+      <c r="G10" t="s" s="44">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,8 +2620,8 @@
       <c r="F11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s" s="44">
-        <v>108</v>
+      <c r="G11" t="s" s="45">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,8 +2643,8 @@
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s" s="45">
-        <v>108</v>
+      <c r="G12" t="s" s="46">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,8 +2666,8 @@
       <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" t="s" s="46">
-        <v>108</v>
+      <c r="G13" t="s" s="47">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,8 +2689,8 @@
       <c r="F14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G14" t="s" s="47">
-        <v>108</v>
+      <c r="G14" t="s" s="48">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,8 +2712,8 @@
       <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="G15" t="s" s="48">
-        <v>108</v>
+      <c r="G15" t="s" s="49">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,8 +2735,8 @@
       <c r="F16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G16" t="s" s="49">
-        <v>108</v>
+      <c r="G16" t="s" s="50">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2392,8 +2758,8 @@
       <c r="F17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G17" t="s" s="50">
-        <v>108</v>
+      <c r="G17" t="s" s="51">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,8 +2781,8 @@
       <c r="F18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G18" t="s" s="51">
-        <v>108</v>
+      <c r="G18" t="s" s="52">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,8 +2804,8 @@
       <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" t="s" s="52">
-        <v>108</v>
+      <c r="G19" t="s" s="53">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,8 +2827,8 @@
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s" s="53">
-        <v>108</v>
+      <c r="G20" t="s" s="54">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2484,8 +2850,8 @@
       <c r="F21" s="1">
         <v>10</v>
       </c>
-      <c r="G21" t="s" s="54">
-        <v>108</v>
+      <c r="G21" t="s" s="55">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,8 +2873,8 @@
       <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" t="s" s="55">
-        <v>108</v>
+      <c r="G22" t="s" s="56">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2530,8 +2896,8 @@
       <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s" s="56">
-        <v>108</v>
+      <c r="G23" t="s" s="57">
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,8 +2919,8 @@
       <c r="F24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="s" s="57">
-        <v>108</v>
+      <c r="G24" t="s" s="58">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2576,8 +2942,836 @@
       <c r="F25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="s" s="58">
-        <v>108</v>
+      <c r="G25" t="s" s="59">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5162D975-5C28-40AF-8707-D2CA21B6AF15}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.42578125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="29.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="61">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="62">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="63">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="64">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="65">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="66">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="67">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="68">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s" s="69">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11841</v>
+      </c>
+      <c r="G11" t="s" s="70">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s" s="71">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s" s="72">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s" s="73">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D4A2CB-A7A9-49A2-8673-C8A54D8F7959}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="67.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="73.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="76">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="77">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="78">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="79">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="80">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="81">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="82">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s" s="83">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s" s="84">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="85">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s" s="86">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s" s="87">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s" s="88">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s" s="89">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s" s="90">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s" s="91">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s" s="92">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s" s="93">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/FileOutput/DataEngine_Results.xlsx
+++ b/FileOutput/DataEngine_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Projects\AutomationProject\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE382D8B-3337-4F05-A018-4E088DC7394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A430530-A707-485A-A1C9-0BEC7D4D85F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{03E423A5-42F9-4FBF-8471-492F80536B34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{03E423A5-42F9-4FBF-8471-492F80536B34}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEngine" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BookFlight" sheetId="4" r:id="rId4"/>
     <sheet name="DeleteBookings" sheetId="5" r:id="rId5"/>
     <sheet name="UpdateMyProfile" sheetId="6" r:id="rId6"/>
+    <sheet name="Ref" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="131">
   <si>
     <t>TestCase Description</t>
   </si>
@@ -416,7 +417,13 @@
     <t>E:\Automation Projects\AutomationProject\FileInput\3d Printed Spur gears.jpg</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -424,7 +431,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="93" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,98 +849,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="12"/>
       <b val="true"/>
       <i val="true"/>
     </font>
@@ -1098,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,9 +1023,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1187,19 +1105,6 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,105 +1421,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED22B53-E7A1-4CC4-ABC2-242141C6F311}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.28515625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="21.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="15.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s" s="16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="60">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s" s="61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="35">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="60">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="74">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="94">
-        <v>128</v>
+      <c r="D6" t="s" s="81">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04DA8978-3C36-4BBC-B881-0BD107D9218A}">
+          <x14:formula1>
+            <xm:f>Ref!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1678,7 +1595,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,7 +1618,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,7 +1664,7 @@
         <v>31</v>
       </c>
       <c r="G5" t="s" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,7 +1687,7 @@
         <v>35</v>
       </c>
       <c r="G6" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1793,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1816,7 +1733,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="s" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s" s="13">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s" s="14">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s" s="15">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s" s="17">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s" s="18">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="19">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,7 +1940,7 @@
         <v>31</v>
       </c>
       <c r="G5" t="s" s="20">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2046,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="G6" t="s" s="21">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s" s="22">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,7 +2009,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="s" s="23">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,7 +2032,7 @@
         <v>61</v>
       </c>
       <c r="G9" t="s" s="24">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2138,7 +2055,7 @@
         <v>87</v>
       </c>
       <c r="G10" t="s" s="25">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,7 +2078,7 @@
         <v>65</v>
       </c>
       <c r="G11" t="s" s="26">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="G12" t="s" s="27">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s" s="28">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,7 +2147,7 @@
         <v>107</v>
       </c>
       <c r="G14" t="s" s="29">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2253,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s" s="30">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2276,7 +2193,7 @@
         <v>83</v>
       </c>
       <c r="G16" t="s" s="31">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s" s="32">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="G18" t="s" s="33">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="G19" t="s" s="34">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2331,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s" s="36">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2437,7 +2354,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s" s="37">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="38">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2483,7 +2400,7 @@
         <v>31</v>
       </c>
       <c r="G5" t="s" s="39">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2506,7 +2423,7 @@
         <v>35</v>
       </c>
       <c r="G6" t="s" s="40">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2529,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s" s="41">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,7 +2469,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="s" s="42">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,7 +2492,7 @@
         <v>61</v>
       </c>
       <c r="G9" t="s" s="43">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2598,7 +2515,7 @@
         <v>87</v>
       </c>
       <c r="G10" t="s" s="44">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2621,7 +2538,7 @@
         <v>65</v>
       </c>
       <c r="G11" t="s" s="45">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,7 +2561,7 @@
         <v>16</v>
       </c>
       <c r="G12" t="s" s="46">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2667,7 +2584,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s" s="47">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,7 +2607,7 @@
         <v>107</v>
       </c>
       <c r="G14" t="s" s="48">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s" s="49">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,7 +2653,7 @@
         <v>83</v>
       </c>
       <c r="G16" t="s" s="50">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,7 +2676,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s" s="51">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2782,7 +2699,7 @@
         <v>94</v>
       </c>
       <c r="G18" t="s" s="52">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="G19" t="s" s="53">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,7 +2745,7 @@
         <v>16</v>
       </c>
       <c r="G20" t="s" s="54">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2851,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="s" s="55">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,7 +2791,7 @@
         <v>103</v>
       </c>
       <c r="G22" t="s" s="56">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,7 +2814,7 @@
         <v>16</v>
       </c>
       <c r="G23" t="s" s="57">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,7 +2837,7 @@
         <v>16</v>
       </c>
       <c r="G24" t="s" s="58">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="G25" t="s" s="59">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2874,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,9 +2928,6 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="61">
-        <v>128</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3034,9 +2948,6 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="62">
-        <v>128</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3057,9 +2968,6 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" t="s" s="63">
-        <v>128</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3080,9 +2988,6 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="64">
-        <v>128</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3103,9 +3008,6 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="65">
-        <v>128</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3126,9 +3028,6 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="66">
-        <v>128</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3149,9 +3048,6 @@
       <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s" s="67">
-        <v>128</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3166,14 +3062,11 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" t="s" s="68">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3195,9 +3088,6 @@
       <c r="F10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s" s="69">
-        <v>128</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3216,10 +3106,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="1">
-        <v>11841</v>
-      </c>
-      <c r="G11" t="s" s="70">
-        <v>128</v>
+        <v>11848</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,9 +3128,6 @@
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s" s="71">
-        <v>128</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3264,9 +3148,6 @@
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s" s="72">
-        <v>128</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3286,9 +3167,6 @@
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G14" t="s" s="73">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3301,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D4A2CB-A7A9-49A2-8673-C8A54D8F7959}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,8 +3234,8 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="75">
-        <v>128</v>
+      <c r="G2" t="s" s="62">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3379,8 +3257,8 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="76">
-        <v>128</v>
+      <c r="G3" t="s" s="63">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3402,8 +3280,8 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" t="s" s="77">
-        <v>128</v>
+      <c r="G4" t="s" s="64">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3425,8 +3303,8 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="78">
-        <v>128</v>
+      <c r="G5" t="s" s="65">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3448,8 +3326,8 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="79">
-        <v>128</v>
+      <c r="G6" t="s" s="66">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3471,8 +3349,8 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="80">
-        <v>128</v>
+      <c r="G7" t="s" s="67">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3494,8 +3372,8 @@
       <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s" s="81">
-        <v>128</v>
+      <c r="G8" t="s" s="68">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3517,8 +3395,8 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s" s="82">
-        <v>128</v>
+      <c r="G9" t="s" s="69">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3540,8 +3418,8 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s" s="83">
-        <v>128</v>
+      <c r="G10" t="s" s="70">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3563,8 +3441,8 @@
       <c r="F11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s" s="84">
-        <v>128</v>
+      <c r="G11" t="s" s="71">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3586,8 +3464,8 @@
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" t="s" s="85">
-        <v>128</v>
+      <c r="G12" t="s" s="72">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3609,8 +3487,8 @@
       <c r="F13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G13" t="s" s="86">
-        <v>128</v>
+      <c r="G13" t="s" s="73">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3632,8 +3510,8 @@
       <c r="F14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G14" t="s" s="87">
-        <v>128</v>
+      <c r="G14" t="s" s="74">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3655,8 +3533,8 @@
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s" s="88">
-        <v>128</v>
+      <c r="G15" t="s" s="75">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3678,8 +3556,8 @@
       <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="G16" t="s" s="89">
-        <v>128</v>
+      <c r="G16" t="s" s="76">
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3701,8 +3579,8 @@
       <c r="F17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G17" t="s" s="90">
-        <v>128</v>
+      <c r="G17" t="s" s="77">
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,8 +3602,8 @@
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s" s="91">
-        <v>128</v>
+      <c r="G18" t="s" s="78">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,8 +3625,8 @@
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s" s="92">
-        <v>128</v>
+      <c r="G19" t="s" s="79">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3770,12 +3648,35 @@
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s" s="93">
-        <v>128</v>
+      <c r="G20" t="s" s="80">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2363EAAB-5830-4DFA-97B5-9815824B353B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>